--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>土地坐落</t>
   </si>
@@ -241,7 +241,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>志城投資股份有限公司</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1308,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1333,13 +1345,22 @@
       <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1355,6 +1376,15 @@
       </c>
       <c r="G2" s="2">
         <v>238160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -1372,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1389,7 +1419,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1406,7 +1436,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1423,7 +1453,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1440,7 +1470,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1457,7 +1487,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1484,16 +1514,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1501,16 +1531,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1518,16 +1548,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1535,16 +1565,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1552,16 +1582,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1569,16 +1599,16 @@
         <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1586,16 +1616,16 @@
         <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1603,16 +1633,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1620,16 +1650,16 @@
         <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
   <si>
     <t>土地坐落</t>
   </si>
@@ -241,6 +241,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>志城投資股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-21</t>
@@ -1320,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1354,13 +1360,16 @@
       <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1378,12 +1387,15 @@
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>919</v>
       </c>
     </row>
@@ -1402,16 +1414,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1419,7 +1431,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1436,7 +1448,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1453,7 +1465,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1470,7 +1482,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1487,7 +1499,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1514,16 +1526,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1531,16 +1543,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1548,16 +1560,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1565,16 +1577,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1582,16 +1594,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1599,16 +1611,16 @@
         <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1616,16 +1628,16 @@
         <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1633,16 +1645,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1650,16 +1662,16 @@
         <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>土地坐落</t>
   </si>
@@ -244,6 +244,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -253,13 +256,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>志城投資股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpc6841</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1326,13 +1341,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1363,13 +1378,22 @@
       <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1387,16 +1411,25 @@
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>919</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1414,16 +1447,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1431,7 +1464,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1448,7 +1481,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1465,7 +1498,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1482,7 +1515,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1499,7 +1532,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1526,16 +1559,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1543,16 +1576,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1560,16 +1593,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1577,16 +1610,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1594,16 +1627,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1611,16 +1644,16 @@
         <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1628,16 +1661,16 @@
         <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1645,16 +1678,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1662,16 +1695,16 @@
         <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,9 +20,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段05800000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段09430000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣八德市同福段06090000地號</t>
+  </si>
+  <si>
+    <t>10000分之116</t>
+  </si>
+  <si>
+    <t>2404分之153</t>
+  </si>
+  <si>
+    <t>100000分之292</t>
+  </si>
+  <si>
+    <t>陳端梅</t>
+  </si>
+  <si>
+    <t>孫大千</t>
+  </si>
+  <si>
+    <t>92年10月15曰</t>
+  </si>
+  <si>
+    <t>72年08月05曰</t>
+  </si>
+  <si>
+    <t>99年07月12曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>7650000(7650000(土地及建物之總價））</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpc6841</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,88 +142,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段六小段 0580-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段 0943-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣八德市同福段 0609-0000 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>10000 分 之116</t>
-  </si>
-  <si>
-    <t>2404分之 153</t>
-  </si>
-  <si>
-    <t>100000 分 之292</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>陳端梅</t>
-  </si>
-  <si>
-    <t>孫大千</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>92 年 10 月15曰</t>
-  </si>
-  <si>
-    <t>72 年 08 月05曰</t>
-  </si>
-  <si>
-    <t>99 年 07 月12曰</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>所有.權人</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>7,650,000(7650000(土 地及建物之總價））</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>'臺北市大安區仁愛段六小段 02412-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段 02468-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段 00558-000 建號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段 01900-000建號(陽台）</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段 02112-000 建號</t>
+    <t>臺北市大安區仁愛段六小段02412000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段02468000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段00558000建號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段01900000建號(陽台）</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段02112000建號</t>
   </si>
   <si>
     <t>建</t>
@@ -142,7 +172,7 @@
     <t>全部■</t>
   </si>
   <si>
-    <t>4320分之 9</t>
+    <t>4320分之9</t>
   </si>
   <si>
     <t>標</t>
@@ -154,7 +184,7 @@
     <t>貝賈</t>
   </si>
   <si>
-    <t>7,650,000(7650000(土 地及建物之總價)）</t>
+    <t>7650000(7650000(土地及建物之總價)）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -166,16 +196,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA PREVIA</t>
+    <t>TOYOTAPREVIA</t>
   </si>
   <si>
     <t>納智捷G91SPCA</t>
   </si>
   <si>
-    <t>100 年 10 月25曰</t>
-  </si>
-  <si>
-    <t>100 年 04 月28日</t>
+    <t>100年10月25曰</t>
+  </si>
+  <si>
+    <t>100年04月28日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -196,16 +226,16 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>國泰世華商業銀行館前分 行 .</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行世貿分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行大安分 行</t>
+    <t>國泰世華商業銀行館前分行.</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行大安分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -223,12 +253,6 @@
     <t>孫〇揚</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -241,46 +265,16 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>志城投資股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpc6841</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -331,37 +325,37 @@
     <t>保德信教育終身壽險</t>
   </si>
   <si>
-    <t>保德信特定傷病終身健康保 險</t>
+    <t>保德信特定傷病終身健康保險</t>
   </si>
   <si>
     <t>保德信癌症終身健康保險</t>
   </si>
   <si>
-    <t>富邦人壽全福還本分紅终身 壽險</t>
-  </si>
-  <si>
-    <t>缴費期滿，保險期間：終身■</t>
-  </si>
-  <si>
-    <t>20年，保險期間：终身，投保</t>
-  </si>
-  <si>
-    <t>15年，保險期間：終身，投保</t>
-  </si>
-  <si>
-    <t>NTS50,835，繳費期間：20年'</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 NT$110,997，‘繳費期間：18 年，保險期間：終身，投保日 期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 NT$8,244，繳費期間：20年， 保險期間：終身，投保日期： 96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 NT$2,859，缴費期間：20年保 險期間：終身，投保日期： 96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫◦揚，年缴 NT$35，788，繳費期間：20年， 保險期間：終身，投保日期： 96.4.3</t>
+    <t>富邦人壽全福還本分紅终身壽險</t>
+  </si>
+  <si>
+    <t>缴費期滿保險期間：終身■</t>
+  </si>
+  <si>
+    <t>20年保險期間：终身投保</t>
+  </si>
+  <si>
+    <t>15年保險期間：終身投保</t>
+  </si>
+  <si>
+    <t>NTS50835繳費期間：20年</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳NT$110997‘繳費期間：18年保險期間：終身投保日期：96.3.30</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳NT$8244繳費期間：20年保險期間：終身投保日期：96.3.30</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳NT$2859缴費期間：20年保險期間：終身投保日期：96.3.30</t>
+  </si>
+  <si>
+    <t>被保險人：孫◦揚年缴NT$35788繳費期間：20年保險期間：終身投保日期：96.4.3</t>
   </si>
 </sst>
 </file>
@@ -720,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,109 +742,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2025</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>919</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>542.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>919</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>8648.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
+      <c r="M4" s="2">
+        <v>919</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -868,152 +920,152 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>181.48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>1374.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>123.75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>144.99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>32.33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2">
         <v>700000</v>
@@ -1021,28 +1073,28 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1060,42 +1112,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>1548500</v>
@@ -1103,22 +1155,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>1012000</v>
@@ -1139,36 +1191,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>1316217</v>
@@ -1176,19 +1228,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>71802</v>
@@ -1196,19 +1248,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>46121</v>
@@ -1216,19 +1268,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>97602</v>
@@ -1236,19 +1288,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>187643</v>
@@ -1256,19 +1308,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>2099177</v>
@@ -1276,19 +1328,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2">
         <v>5000000</v>
@@ -1296,19 +1348,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2">
         <v>132712</v>
@@ -1316,19 +1368,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2">
         <v>1000367</v>
@@ -1349,54 +1401,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>23816</v>
@@ -1405,31 +1457,31 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>919</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1447,30 +1499,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>240000</v>
@@ -1478,16 +1530,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>220000</v>
@@ -1495,16 +1547,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>250000</v>
@@ -1512,16 +1564,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>230000</v>
@@ -1529,16 +1581,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>210000</v>
@@ -1559,152 +1611,152 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段六小段05800000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市永和區永安段09430000地號</t>
@@ -73,9 +76,6 @@
     <t>桃圜縣八德市同福段06090000地號</t>
   </si>
   <si>
-    <t>10000分之116</t>
-  </si>
-  <si>
     <t>2404分之153</t>
   </si>
   <si>
@@ -88,141 +88,114 @@
     <t>孫大千</t>
   </si>
   <si>
+    <t>72年08月05曰</t>
+  </si>
+  <si>
+    <t>99年07月12曰</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>7650000(7650000(土地及建物之總價））</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpc6841</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段02412000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>92年10月15曰</t>
   </si>
   <si>
-    <t>72年08月05曰</t>
-  </si>
-  <si>
-    <t>99年07月12曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>7650000(7650000(土地及建物之總價））</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpc6841</t>
-  </si>
-  <si>
-    <t>建物標示</t>
+    <t>臺北市大安區仁愛段六小段02468000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段00558000建號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段01900000建號(陽台）</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段02112000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>28分之1</t>
+  </si>
+  <si>
+    <t>全部■</t>
+  </si>
+  <si>
+    <t>4320分之9</t>
+  </si>
+  <si>
+    <t>標</t>
+  </si>
+  <si>
+    <t>示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
+    <t>貝賈</t>
+  </si>
+  <si>
     <t>權利範圍(持分）</t>
   </si>
   <si>
+    <t>7650000(7650000(土地及建物之總價)）</t>
+  </si>
+  <si>
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段02412000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段02468000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段00558000建號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段01900000建號(陽台）</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段02112000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>28分之1</t>
-  </si>
-  <si>
-    <t>全部■</t>
-  </si>
-  <si>
-    <t>4320分之9</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>7650000(7650000(土地及建物之總價)）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>TOYOTAPREVIA</t>
   </si>
   <si>
+    <t>100年10月25曰</t>
+  </si>
+  <si>
     <t>納智捷G91SPCA</t>
   </si>
   <si>
-    <t>100年10月25曰</t>
-  </si>
-  <si>
     <t>100年04月28日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
@@ -238,18 +211,12 @@
     <t>台北富邦商業銀行大安分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款.</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>孫〇揚</t>
   </si>
   <si>
@@ -262,24 +229,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>志城投資股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>手錶</t>
   </si>
   <si>
@@ -289,30 +238,21 @@
     <t>項鍊</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保.人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>身壽險丙型</t>
+  </si>
+  <si>
+    <t>缴費期滿保險期間：終身■</t>
+  </si>
+  <si>
     <t>保德信人壽</t>
   </si>
   <si>
     <t>富#人壽</t>
   </si>
   <si>
-    <t>身壽險丙型</t>
-  </si>
-  <si>
     <t>富邦人壽重大疾病終身保險</t>
   </si>
   <si>
@@ -332,9 +272,6 @@
   </si>
   <si>
     <t>富邦人壽全福還本分紅终身壽險</t>
-  </si>
-  <si>
-    <t>缴費期滿保險期間：終身■</t>
   </si>
   <si>
     <t>20年保險期間：终身投保</t>
@@ -714,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,19 +700,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2025</v>
+        <v>542.63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -784,19 +727,19 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>
@@ -805,45 +748,51 @@
         <v>919</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0636439267886855</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>34.5351039933444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>542.63</v>
+        <v>8648.49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
@@ -852,57 +801,16 @@
         <v>919</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8648.49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2">
-        <v>919</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2">
-        <v>16</v>
+      <c r="P3" s="2">
+        <v>0.00292</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.2535908</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,65 +828,65 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>181.48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>181.48</v>
+        <v>1374.6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>1374.6</v>
+        <v>123.75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -987,114 +895,88 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>123.75</v>
+        <v>144.99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32.33</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>144.99</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
+      <c r="H5" s="2">
+        <v>700000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2">
-        <v>32.33</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +986,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,67 +994,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1548500</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
-        <v>2362</v>
+        <v>2198</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2">
-        <v>1548500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2198</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2">
         <v>1012000</v>
       </c>
     </row>
@@ -1183,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,198 +1050,178 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1316217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>1316217</v>
+        <v>71802</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>71802</v>
+        <v>46121</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>46121</v>
+        <v>97602</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>97602</v>
+        <v>187643</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>187643</v>
+        <v>2099177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2">
-        <v>2099177</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2">
-        <v>5000000</v>
+        <v>132712</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2">
-        <v>132712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="2">
         <v>1000367</v>
       </c>
     </row>
@@ -1393,13 +1232,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,16 +1246,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1438,50 +1277,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>23816</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="2">
-        <v>238160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2">
-        <v>919</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1499,41 +1294,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="1">
+        <v>240000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
-        <v>240000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1542,15 +1337,15 @@
         <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>220000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1559,15 +1354,15 @@
         <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>250000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1576,23 +1371,6 @@
         <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>92</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
         <v>210000</v>
       </c>
     </row>
@@ -1603,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1611,152 +1389,135 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>111</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -70,12 +70,18 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段六小段05800000地號</t>
+  </si>
+  <si>
     <t>新北市永和區永安段09430000地號</t>
   </si>
   <si>
     <t>桃圜縣八德市同福段06090000地號</t>
   </si>
   <si>
+    <t>10000分之116</t>
+  </si>
+  <si>
     <t>2404分之153</t>
   </si>
   <si>
@@ -88,18 +94,21 @@
     <t>孫大千</t>
   </si>
   <si>
+    <t>92年10月15曰</t>
+  </si>
+  <si>
     <t>72年08月05曰</t>
   </si>
   <si>
     <t>99年07月12曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -121,30 +130,21 @@
     <t>臺北市大安區仁愛段六小段02412000建號</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段六小段02468000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段00558000建號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段01900000建號(陽台）</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段02112000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>92年10月15曰</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段02468000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段00558000建號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段01900000建號(陽台）</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段02112000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
     <t>28分之1</t>
   </si>
   <si>
@@ -154,27 +154,12 @@
     <t>4320分之9</t>
   </si>
   <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
     <t>貝賈</t>
   </si>
   <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
     <t>7650000(7650000(土地及建物之總價)）</t>
   </si>
   <si>
-    <t>所有權人</t>
-  </si>
-  <si>
     <t>TOYOTAPREVIA</t>
   </si>
   <si>
@@ -227,6 +212,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>志城投資股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>手錶</t>
@@ -651,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,107 +700,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>542.63</v>
+        <v>2025</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>919</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0636439267886855</v>
+        <v>0.0116</v>
       </c>
       <c r="Q2" s="2">
-        <v>34.5351039933444</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>8648.49</v>
+        <v>542.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>919</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0636439267886855</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>34.5351039933444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8648.49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2">
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>919</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.00292</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>25.2535908</v>
       </c>
     </row>
@@ -820,163 +864,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1">
-        <v>181.48</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>1374.6</v>
+        <v>181.48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>919</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>181.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>123.75</v>
+        <v>1374.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>919</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>49.0928571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>144.99</v>
+        <v>123.75</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>919</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2">
-        <v>32.33</v>
+        <v>144.99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>919</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>144.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>25</v>
-      </c>
-      <c r="H5" s="2">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
+      <c r="C6" s="2">
+        <v>32.33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>700000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>919</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00208333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0673541666666667</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,19 +1200,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1">
         <v>1548500</v>
@@ -1014,24 +1220,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1548500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
         <v>2198</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
         <v>1012000</v>
       </c>
     </row>
@@ -1042,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,16 +1279,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1">
         <v>1316217</v>
@@ -1067,161 +1296,181 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>71802</v>
+        <v>1316217</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>46121</v>
+        <v>71802</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>97602</v>
+        <v>46121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>187643</v>
+        <v>97602</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
-        <v>2099177</v>
+        <v>187643</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>5000000</v>
+        <v>2099177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2">
-        <v>132712</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2">
+        <v>132712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
         <v>1000367</v>
       </c>
     </row>
@@ -1232,13 +1481,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,13 +1495,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1277,6 +1526,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23816</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2">
+        <v>238160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>919</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1579,119 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1296,228 +1701,150 @@
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1">
-        <v>240000</v>
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>220000</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>250000</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>230000</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>104</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -160,13 +160,16 @@
     <t>7650000(7650000(土地及建物之總價)）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>TOYOTAPREVIA</t>
   </si>
   <si>
+    <t>納智捷G91SPCA</t>
+  </si>
+  <si>
     <t>100年10月25曰</t>
-  </si>
-  <si>
-    <t>納智捷G91SPCA</t>
   </si>
   <si>
     <t>100年04月28日</t>
@@ -1192,38 +1195,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1548500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1232,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1240,8 +1264,29 @@
       <c r="G2" s="2">
         <v>1548500</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>919</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>36</v>
       </c>
@@ -1255,13 +1300,34 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2">
         <v>1012000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>919</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1279,13 +1345,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1299,13 +1365,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1319,13 +1385,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1339,13 +1405,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1359,13 +1425,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1379,13 +1445,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1399,13 +1465,13 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1419,16 +1485,16 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2">
         <v>5000000</v>
@@ -1439,16 +1505,16 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2">
         <v>132712</v>
@@ -1459,16 +1525,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2">
         <v>1000367</v>
@@ -1495,13 +1561,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1533,7 +1599,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1545,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1587,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1604,7 +1670,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1621,7 +1687,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1638,7 +1704,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1655,7 +1721,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1672,7 +1738,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1699,16 +1765,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1716,16 +1782,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1733,16 +1799,16 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1750,16 +1816,16 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1767,16 +1833,16 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1784,16 +1850,16 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1801,16 +1867,16 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1818,16 +1884,16 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1835,16 +1901,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
     <t>7650000(7650000(土地及建物之總價)）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>100年04月28日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -949,7 +955,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1002,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1055,7 +1061,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
@@ -1108,7 +1114,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
@@ -1161,7 +1167,7 @@
         <v>700000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>32</v>
@@ -1206,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1247,7 +1253,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1256,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1265,7 +1271,7 @@
         <v>1548500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1291,7 +1297,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
@@ -1300,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
@@ -1309,7 +1315,7 @@
         <v>1012000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1345,13 +1351,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1365,13 +1371,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1385,13 +1391,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1405,13 +1411,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1425,13 +1431,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1445,13 +1451,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1465,13 +1471,13 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1485,16 +1491,16 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2">
         <v>5000000</v>
@@ -1505,16 +1511,16 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2">
         <v>132712</v>
@@ -1525,16 +1531,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2">
         <v>1000367</v>
@@ -1561,13 +1567,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1599,7 +1605,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1611,13 +1617,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1653,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1670,7 +1676,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1687,7 +1693,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1704,7 +1710,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1721,7 +1727,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1738,7 +1744,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1765,16 +1771,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1782,16 +1788,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1799,16 +1805,16 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1816,16 +1822,16 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1833,16 +1839,16 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1850,16 +1856,16 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1867,16 +1873,16 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1884,16 +1890,16 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1901,16 +1907,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -181,46 +181,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行.</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行大安分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行.</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>孫〇揚</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>志城投資股份有限公司</t>
@@ -1343,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1360,24 +1369,45 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1316217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1385,19 +1415,40 @@
       <c r="F2" s="2">
         <v>1316217</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>919</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1405,19 +1456,40 @@
       <c r="F3" s="2">
         <v>71802</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>919</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1425,19 +1497,40 @@
       <c r="F4" s="2">
         <v>46121</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>919</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1445,19 +1538,40 @@
       <c r="F5" s="2">
         <v>97602</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>919</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1465,19 +1579,40 @@
       <c r="F6" s="2">
         <v>187643</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>919</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1485,65 +1620,149 @@
       <c r="F7" s="2">
         <v>2099177</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>919</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>919</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2">
         <v>132712</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>919</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2">
         <v>1000367</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>919</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1786,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1605,7 +1824,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1617,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1659,7 +1878,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1676,7 +1895,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1693,7 +1912,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1710,7 +1929,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1727,7 +1946,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1744,7 +1963,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1771,16 +1990,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1788,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1805,16 +2024,16 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1822,16 +2041,16 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1839,16 +2058,16 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1856,16 +2075,16 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1873,16 +2092,16 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1890,16 +2109,16 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1907,16 +2126,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -148,9 +148,6 @@
     <t>28分之1</t>
   </si>
   <si>
-    <t>全部■</t>
-  </si>
-  <si>
     <t>4320分之9</t>
   </si>
   <si>
@@ -247,13 +244,16 @@
     <t>項鍊</t>
   </si>
   <si>
+    <t>otherbonds</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>身壽險丙型</t>
   </si>
   <si>
-    <t>缴費期滿保險期間：終身■</t>
+    <t>缴費期滿保險期間：終身</t>
   </si>
   <si>
     <t>保德信人壽</t>
@@ -964,7 +964,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1011,13 +1011,13 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1055,7 +1055,7 @@
         <v>123.75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
@@ -1120,10 +1120,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
@@ -1161,7 +1161,7 @@
         <v>32.33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1176,7 +1176,7 @@
         <v>700000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>32</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1271,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1280,7 +1280,7 @@
         <v>1548500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1306,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
@@ -1315,7 +1315,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
@@ -1324,7 +1324,7 @@
         <v>1012000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1360,13 +1360,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1401,13 +1401,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1416,7 +1416,7 @@
         <v>1316217</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
@@ -1442,13 +1442,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1457,7 +1457,7 @@
         <v>71802</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
@@ -1483,13 +1483,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1498,7 +1498,7 @@
         <v>46121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>32</v>
@@ -1524,13 +1524,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1539,7 +1539,7 @@
         <v>97602</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
@@ -1565,13 +1565,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1580,7 +1580,7 @@
         <v>187643</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
@@ -1606,13 +1606,13 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1621,7 +1621,7 @@
         <v>2099177</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>32</v>
@@ -1647,22 +1647,22 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="2">
         <v>5000000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>32</v>
@@ -1688,22 +1688,22 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F9" s="2">
         <v>132712</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>32</v>
@@ -1729,22 +1729,22 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F10" s="2">
         <v>1000367</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>32</v>
@@ -1786,13 +1786,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1824,7 +1824,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1836,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1870,32 +1870,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1906,13 +1927,34 @@
       <c r="E2" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>919</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1923,13 +1965,34 @@
       <c r="E3" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>919</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1940,13 +2003,34 @@
       <c r="E4" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>919</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1957,13 +2041,34 @@
       <c r="E5" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>919</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1973,6 +2078,27 @@
       </c>
       <c r="E6" s="2">
         <v>210000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>919</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
+++ b/legislator/property/output/normal/孫大千_2011-11-21_財產申報表_tmpc6841.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -244,24 +244,24 @@
     <t>項鍊</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>保德信人壽</t>
+  </si>
+  <si>
+    <t>富#人壽</t>
+  </si>
+  <si>
     <t>身壽險丙型</t>
   </si>
   <si>
-    <t>缴費期滿保險期間：終身</t>
-  </si>
-  <si>
-    <t>保德信人壽</t>
-  </si>
-  <si>
-    <t>富#人壽</t>
-  </si>
-  <si>
     <t>富邦人壽重大疾病終身保險</t>
   </si>
   <si>
@@ -283,25 +283,7 @@
     <t>富邦人壽全福還本分紅终身壽險</t>
   </si>
   <si>
-    <t>20年保險期間：终身投保</t>
-  </si>
-  <si>
-    <t>15年保險期間：終身投保</t>
-  </si>
-  <si>
-    <t>NTS50835繳費期間：20年</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳NT$110997‘繳費期間：18年保險期間：終身投保日期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳NT$8244繳費期間：20年保險期間：終身投保日期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳NT$2859缴費期間：20年保險期間：終身投保日期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫◦揚年缴NT$35788繳費期間：20年保險期間：終身投保日期：96.4.3</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2108,49 +2090,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>919</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>80</v>
@@ -2161,13 +2179,31 @@
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>919</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>81</v>
@@ -2176,15 +2212,33 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>919</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>82</v>
@@ -2193,15 +2247,33 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>919</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>83</v>
@@ -2210,15 +2282,33 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>919</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>84</v>
@@ -2227,15 +2317,33 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>919</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>85</v>
@@ -2244,15 +2352,33 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2">
+        <v>919</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>86</v>
@@ -2261,7 +2387,25 @@
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2">
+        <v>919</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
